--- a/testData/Betika_LoginData.xlsx
+++ b/testData/Betika_LoginData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fido\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFDA8A43-DAAD-4ECB-948E-489B3419B8D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3430A-B156-44C0-AF2E-ED629B552460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>password</t>
   </si>
@@ -49,9 +49,6 @@
   </si>
   <si>
     <t>response</t>
-  </si>
-  <si>
-    <t>inValid</t>
   </si>
 </sst>
 </file>
@@ -117,18 +114,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -450,10 +441,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -475,74 +466,59 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <v>254735638271</v>
+      <c r="A2" s="3">
+        <v>254735638274</v>
       </c>
       <c r="B2" s="2">
-        <v>2020</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>1</v>
+        <v>8888</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="5">
-        <v>254735638274</v>
-      </c>
-      <c r="B3" s="3">
-        <v>8888</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>254735638271</v>
+      </c>
+      <c r="B3" s="2">
+        <v>7777</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="5">
+      <c r="A4" s="3">
         <v>254735638271</v>
       </c>
-      <c r="B4" s="3">
-        <v>7777</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
+      <c r="B4" s="2">
+        <v>2020</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="5">
+      <c r="A5" s="3">
         <v>254735638272</v>
       </c>
-      <c r="B5" s="3">
+      <c r="B5" s="2">
         <v>9999</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="5">
-        <v>254735638273</v>
-      </c>
-      <c r="B6" s="4">
-        <v>8888</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="6"/>
+      <c r="A6" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="pavanoltraining@gmail.com" xr:uid="{D3BE7519-95C3-4ACD-9AB4-5385C9508082}"/>
-    <hyperlink ref="A4" r:id="rId2" display="laksh@yahoo.com" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A3" r:id="rId3" display="lakshmi@yahoo.com" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId4" display="laks@yahoo.com" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-    <hyperlink ref="B2" r:id="rId5" display="test@123" xr:uid="{968262D0-AE14-41EF-AB8A-08B3F886E797}"/>
-    <hyperlink ref="A6" r:id="rId6" display="abc123@gmail.com" xr:uid="{75A4F8D6-7BF1-446B-9367-475FA4FB44C7}"/>
-    <hyperlink ref="B6" r:id="rId7" display="test@123" xr:uid="{01D5649A-5E55-45E1-9B81-1CE430C208A1}"/>
+    <hyperlink ref="A3" r:id="rId1" display="laksh@yahoo.com" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
+    <hyperlink ref="A2" r:id="rId2" display="lakshmi@yahoo.com" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
+    <hyperlink ref="A5" r:id="rId3" display="laks@yahoo.com" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
 </worksheet>
 </file>
--- a/testData/Betika_LoginData.xlsx
+++ b/testData/Betika_LoginData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fido\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fido\Documents\Betikaworkspace\betika-UIAutomation\testData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0DA3430A-B156-44C0-AF2E-ED629B552460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4189617D-88A8-445F-9A58-459E781746DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
+    <workbookView xWindow="33270" yWindow="3060" windowWidth="21600" windowHeight="11295" xr2:uid="{1F2D179E-37D2-4BC0-88A9-F5C135B87DA5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -55,18 +55,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -110,11 +102,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -122,13 +113,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -441,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{884FCF78-0A3E-40BF-9E26-11C478AF56E2}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,7 +457,7 @@
         <v>254735638274</v>
       </c>
       <c r="B2" s="2">
-        <v>8888</v>
+        <v>2020</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>2</v>
@@ -509,16 +496,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="4"/>
-    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="laksh@yahoo.com" xr:uid="{8456409A-CACC-4B7E-B78E-75E713148E0E}"/>
-    <hyperlink ref="A2" r:id="rId2" display="lakshmi@yahoo.com" xr:uid="{5E52A498-5B14-4BDC-BBF1-05425B8AC197}"/>
-    <hyperlink ref="A5" r:id="rId3" display="laks@yahoo.com" xr:uid="{94E9D5A6-98A1-4A25-BDDE-C5B20EDA887E}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId4"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>